--- a/cmake-build-debug/historia.xlsx
+++ b/cmake-build-debug/historia.xlsx
@@ -36,6 +36,13 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>//</t>
+  </si>
+  <si>
+    <t>11111111111</t>
+  </si>
+  <si>
+    <t>Data dodania pacjenta do systemu:19.01.2023
+</t>
   </si>
 </sst>
 </file>
@@ -403,6 +410,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cmake-build-debug/historia.xlsx
+++ b/cmake-build-debug/historia.xlsx
@@ -36,6 +36,12 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>//</t>
+  </si>
+  <si>
+    <t>123432</t>
+  </si>
+  <si>
+    <t>Elo</t>
   </si>
 </sst>
 </file>
@@ -403,6 +409,14 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cmake-build-debug/historia.xlsx
+++ b/cmake-build-debug/historia.xlsx
@@ -43,6 +43,10 @@
   <si>
     <t>Data dodania pacjenta do systemu:19.01.2023
 </t>
+  </si>
+  <si>
+    <t>Data dodania pacjenta do systemu:19.01.2023
+Ello</t>
   </si>
 </sst>
 </file>
@@ -415,7 +419,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/cmake-build-debug/historia.xlsx
+++ b/cmake-build-debug/historia.xlsx
@@ -47,6 +47,65 @@
   <si>
     <t>Data dodania pacjenta do systemu:19.01.2023
 Ello</t>
+  </si>
+  <si>
+    <t>Data dodania pacjenta do systemu:19.01.2023
+Ello
+Wizyta z dnia:Tue Jan 17 22:49:40 2023
+Doktor: LOL2 LOL2
+umarl na smiersc</t>
+  </si>
+  <si>
+    <t>Data dodania pacjenta do systemu:19.01.2023
+Ello
+Wizyta z dnia:Tue Jan 17 22:49:40 2023
+Doktor: LOL2 LOL2
+umarl na smiersc
+Wizyta z dnia:Tue Jan 17 22:51:17 2023
+Doktor: LOL2 LOL2
+A
+B</t>
+  </si>
+  <si>
+    <t>Data dodania pacjenta do systemu:19.01.2023
+Ello
+Wizyta z dnia:Tue Jan 17 22:49:40 2023
+Doktor: LOL2 LOL2
+umarl na smiersc
+Wizyta z dnia:Tue Jan 17 22:51:17 2023
+Doktor: LOL2 LOL2
+A
+B
+Wizyta z dnia:Tue Jan 17 22:51:28 2023
+Doktor: LOL2 LOL2
+A
+BCCCCCcccccccccccCCCCCCCCCCCCCCCCCCC</t>
+  </si>
+  <si>
+    <t>Data dodania pacjenta do systemu:19.01.2023
+Ello
+Wizyta z dnia:Tue Jan 17 22:49:40 2023
+Doktor: LOL2 LOL2
+umarl na smiersc
+Wizyta z dnia:Tue Jan 17 22:51:17 2023
+Doktor: LOL2 LOL2
+A
+B
+Wizyta z dnia:Tue Jan 17 22:51:28 2023
+Doktor: LOL2 LOL2
+A
+BCCCCCcccccccccccCCCCCCCCCCCCCCCCCCC
+Wizyta z dnia:Tue Jan 17 22:51:39 2023
+Doktor: LOL2 LOL2
+A
+BCCCCCcccccccccccCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC
+C
+C
+C
+C
+C
+C
+CCCCCCCcCCCCCCCCCCCCCCC</t>
   </si>
 </sst>
 </file>
@@ -419,7 +478,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/cmake-build-debug/historia.xlsx
+++ b/cmake-build-debug/historia.xlsx
@@ -106,6 +106,13 @@
 C
 C
 CCCCCCCcCCCCCCCCCCCCCCC</t>
+  </si>
+  <si>
+    <t>10000000000</t>
+  </si>
+  <si>
+    <t>Data dodania pacjenta do systemu:18.01.2023
+</t>
   </si>
 </sst>
 </file>
@@ -481,6 +488,14 @@
         <v>7</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/cmake-build-debug/historia.xlsx
+++ b/cmake-build-debug/historia.xlsx
@@ -113,6 +113,35 @@
   <si>
     <t>Data dodania pacjenta do systemu:18.01.2023
 </t>
+  </si>
+  <si>
+    <t>Data dodania pacjenta do systemu:19.01.2023
+Ello
+Wizyta z dnia:Tue Jan 17 22:49:40 2023
+Doktor: LOL2 LOL2
+umarl na smiersc
+Wizyta z dnia:Tue Jan 17 22:51:17 2023
+Doktor: LOL2 LOL2
+A
+B
+Wizyta z dnia:Tue Jan 17 22:51:28 2023
+Doktor: LOL2 LOL2
+A
+BCCCCCcccccccccccCCCCCCCCCCCCCCCCCCC
+Wizyta z dnia:Tue Jan 17 22:51:39 2023
+Doktor: LOL2 LOL2
+A
+BCCCCCcccccccccccCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC
+C
+C
+C
+C
+C
+C
+CCCCCCCcCCCCCCCCCCCCCCC
+Wizyta z dnia:Wed Jan 18 11:50:58 2023
+Doktor: LOL2 LOL2
+XDDD</t>
   </si>
 </sst>
 </file>
@@ -485,7 +514,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">

--- a/cmake-build-debug/historia.xlsx
+++ b/cmake-build-debug/historia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wikto\CLionProjects\Projekt-IO\cmake-build-debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projekt-IO\cmake-build-debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E503604E-CB40-4BC9-BB16-5EDC6DC3C65D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF460CF-6BC5-4B2C-A494-FBBCAC78BEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5016" yWindow="2568" windowWidth="23040" windowHeight="12216" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="2424" yWindow="1368" windowWidth="17280" windowHeight="8964" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,112 +36,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
   <si>
     <t>//</t>
-  </si>
-  <si>
-    <t>11111111111</t>
-  </si>
-  <si>
-    <t>Data dodania pacjenta do systemu:19.01.2023
-</t>
-  </si>
-  <si>
-    <t>Data dodania pacjenta do systemu:19.01.2023
-Ello</t>
-  </si>
-  <si>
-    <t>Data dodania pacjenta do systemu:19.01.2023
-Ello
-Wizyta z dnia:Tue Jan 17 22:49:40 2023
-Doktor: LOL2 LOL2
-umarl na smiersc</t>
-  </si>
-  <si>
-    <t>Data dodania pacjenta do systemu:19.01.2023
-Ello
-Wizyta z dnia:Tue Jan 17 22:49:40 2023
-Doktor: LOL2 LOL2
-umarl na smiersc
-Wizyta z dnia:Tue Jan 17 22:51:17 2023
-Doktor: LOL2 LOL2
-A
-B</t>
-  </si>
-  <si>
-    <t>Data dodania pacjenta do systemu:19.01.2023
-Ello
-Wizyta z dnia:Tue Jan 17 22:49:40 2023
-Doktor: LOL2 LOL2
-umarl na smiersc
-Wizyta z dnia:Tue Jan 17 22:51:17 2023
-Doktor: LOL2 LOL2
-A
-B
-Wizyta z dnia:Tue Jan 17 22:51:28 2023
-Doktor: LOL2 LOL2
-A
-BCCCCCcccccccccccCCCCCCCCCCCCCCCCCCC</t>
-  </si>
-  <si>
-    <t>Data dodania pacjenta do systemu:19.01.2023
-Ello
-Wizyta z dnia:Tue Jan 17 22:49:40 2023
-Doktor: LOL2 LOL2
-umarl na smiersc
-Wizyta z dnia:Tue Jan 17 22:51:17 2023
-Doktor: LOL2 LOL2
-A
-B
-Wizyta z dnia:Tue Jan 17 22:51:28 2023
-Doktor: LOL2 LOL2
-A
-BCCCCCcccccccccccCCCCCCCCCCCCCCCCCCC
-Wizyta z dnia:Tue Jan 17 22:51:39 2023
-Doktor: LOL2 LOL2
-A
-BCCCCCcccccccccccCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC
-C
-C
-C
-C
-C
-C
-CCCCCCCcCCCCCCCCCCCCCCC</t>
-  </si>
-  <si>
-    <t>10000000000</t>
-  </si>
-  <si>
-    <t>Data dodania pacjenta do systemu:18.01.2023
-</t>
-  </si>
-  <si>
-    <t>Data dodania pacjenta do systemu:19.01.2023
-Ello
-Wizyta z dnia:Tue Jan 17 22:49:40 2023
-Doktor: LOL2 LOL2
-umarl na smiersc
-Wizyta z dnia:Tue Jan 17 22:51:17 2023
-Doktor: LOL2 LOL2
-A
-B
-Wizyta z dnia:Tue Jan 17 22:51:28 2023
-Doktor: LOL2 LOL2
-A
-BCCCCCcccccccccccCCCCCCCCCCCCCCCCCCC
-Wizyta z dnia:Tue Jan 17 22:51:39 2023
-Doktor: LOL2 LOL2
-A
-BCCCCCcccccccccccCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCCC
-C
-C
-C
-C
-C
-C
-CCCCCCCcCCCCCCCCCCCCCCC
-Wizyta z dnia:Wed Jan 18 11:50:58 2023
-Doktor: LOL2 LOL2
-XDDD</t>
   </si>
 </sst>
 </file>
@@ -485,7 +379,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -496,7 +390,7 @@
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -509,22 +403,6 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
